--- a/va_facility_data_2025-02-20/Southeast Las Vegas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Southeast%20Las%20Vegas%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Southeast Las Vegas VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Southeast%20Las%20Vegas%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R98ceaffbc6fd488eb5a11b855f96717a"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4de0385992334958bd01e6ca6da4dee1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbecb8df03ee846bd9af8127b437d3b7c"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2cfc0598cf16441cbb431f067621e9c6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R642ec476c291408184325a812a562790"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rddceac290e8b48a9ae8db753d779dc06"/>
   </x:sheets>
 </x:workbook>
 </file>
